--- a/docs/2_requirements_analysis/excel/비기능 요구사항.xlsx
+++ b/docs/2_requirements_analysis/excel/비기능 요구사항.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F5644D-21CB-47C6-85FC-D28A09C13AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE84C751-DB0A-4909-89F7-B17893AFD306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="42">
-  <si>
-    <t>기능1 (하향등)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="53">
   <si>
     <t>기능</t>
   </si>
@@ -36,15 +33,9 @@
     <t>REQ-1</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>REQ-2</t>
   </si>
   <si>
-    <t>켜짐 (밝기 70%, 각도 -5도)</t>
-  </si>
-  <si>
     <t>REQ-3</t>
   </si>
   <si>
@@ -54,9 +45,6 @@
     <t>REQ-5</t>
   </si>
   <si>
-    <t>켜짐 (밝기 100%, 각도 -5도)</t>
-  </si>
-  <si>
     <t>REQ-6</t>
   </si>
   <si>
@@ -84,9 +72,6 @@
     <t>REQ-14</t>
   </si>
   <si>
-    <t>켜짐 (밝기 70%, 각도 -2도)</t>
-  </si>
-  <si>
     <t>REQ-15</t>
   </si>
   <si>
@@ -96,9 +81,6 @@
     <t>REQ-17</t>
   </si>
   <si>
-    <t>켜짐 (밝기 100%, 각도 -2도)</t>
-  </si>
-  <si>
     <t>REQ-18</t>
   </si>
   <si>
@@ -117,9 +99,6 @@
     <t>신뢰성</t>
   </si>
   <si>
-    <t>1초 이내</t>
-  </si>
-  <si>
     <t>1KB미만</t>
   </si>
   <si>
@@ -151,13 +130,97 @@
   </si>
   <si>
     <t>다양한 플랫폼 위에서 작동하는가</t>
+  </si>
+  <si>
+    <t>REQ-20</t>
+  </si>
+  <si>
+    <t>REQ-21</t>
+  </si>
+  <si>
+    <t>REQ-22</t>
+  </si>
+  <si>
+    <t>REQ-23</t>
+  </si>
+  <si>
+    <t>REQ-24</t>
+  </si>
+  <si>
+    <t>REQ-25</t>
+  </si>
+  <si>
+    <t>REQ-26</t>
+  </si>
+  <si>
+    <t>REQ-27</t>
+  </si>
+  <si>
+    <t>REQ-28</t>
+  </si>
+  <si>
+    <t>REQ-29</t>
+  </si>
+  <si>
+    <t>REQ-30</t>
+  </si>
+  <si>
+    <t>REQ-31</t>
+  </si>
+  <si>
+    <t>REQ-32</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>50ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이내</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-33</t>
+  </si>
+  <si>
+    <t>REQ-34</t>
+  </si>
+  <si>
+    <t>REQ-35</t>
+  </si>
+  <si>
+    <t>REQ-36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +265,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,8 +313,14 @@
         <bgColor rgb="FFF0F1F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -253,7 +344,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -271,43 +362,13 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -376,39 +437,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -629,7 +704,9 @@
   </sheetPr>
   <dimension ref="B2:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -639,472 +716,732 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="15" customHeight="1">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15" customHeight="1">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1">
-      <c r="B3" s="11" t="s">
+      <c r="E3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1">
+      <c r="B4" s="2"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" customHeight="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1">
-      <c r="B4" s="2" t="s">
+      <c r="E5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" customHeight="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15" customHeight="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1">
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13" t="s">
+      <c r="E7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15" customHeight="1">
+      <c r="B8" s="2"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
+      <c r="E8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15" customHeight="1">
+      <c r="B9" s="2"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1">
-      <c r="B7" s="2" t="s">
+      <c r="E9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15" customHeight="1">
+      <c r="B10" s="2"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15" customHeight="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1">
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13" t="s">
+      <c r="E11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1">
+      <c r="B12" s="2"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1">
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13" t="s">
+      <c r="E12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15" customHeight="1">
+      <c r="B13" s="2"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1">
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
+      <c r="E13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15" customHeight="1">
+      <c r="B14" s="2"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="15" customHeight="1">
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="E14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15" customHeight="1">
+      <c r="B15" s="2"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1">
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13" t="s">
+      <c r="E15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15" customHeight="1">
+      <c r="B16" s="2"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1">
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
+      <c r="E16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15" customHeight="1">
+      <c r="B17" s="2"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1">
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13" t="s">
+      <c r="E17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15" customHeight="1">
+      <c r="B18" s="2"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="15" customHeight="1">
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13" t="s">
+      <c r="E18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15" customHeight="1">
+      <c r="B19" s="2"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="15" customHeight="1">
-      <c r="B16" s="2" t="s">
+      <c r="E19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15" customHeight="1">
+      <c r="B20" s="2"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15" customHeight="1">
+      <c r="B21" s="3"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="15" customHeight="1">
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15" customHeight="1">
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15" customHeight="1">
-      <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="15" customHeight="1">
-      <c r="B20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="15" customHeight="1">
-      <c r="B21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
+      <c r="E21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15" customHeight="1">
+      <c r="D22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15" customHeight="1">
+      <c r="D23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="16.5">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15" customHeight="1">
+      <c r="D25" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15" customHeight="1">
+      <c r="D26" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15" customHeight="1">
+      <c r="C27" s="15"/>
+      <c r="D27" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15" customHeight="1">
+      <c r="D28" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15" customHeight="1">
+      <c r="D29" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15" customHeight="1">
+      <c r="D30" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="15" customHeight="1">
+      <c r="D31" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="15" customHeight="1">
+      <c r="D32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" ht="15" customHeight="1">
+      <c r="D33" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" ht="15" customHeight="1">
+      <c r="D34" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" ht="15" customHeight="1">
+      <c r="D35" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" ht="15" customHeight="1">
+      <c r="D36" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" ht="15" customHeight="1">
+      <c r="D37" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" ht="15" customHeight="1">
+      <c r="D38" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" ht="15" customHeight="1">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="4:8" ht="15" customHeight="1">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>